--- a/biology/Botanique/Polystachya_batkoi/Polystachya_batkoi.xlsx
+++ b/biology/Botanique/Polystachya_batkoi/Polystachya_batkoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya batkoi Szlach. &amp; Olszewski est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Polystachya, présente au Cameroun, au Gabon et en République démocratique du Congo.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante épiphyte d'Afrique centrale que l'on trouve dans les forêts submontagnardes primaires et secondaires, à une altitude comprise entre 100 et 600 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante épiphyte d'Afrique centrale que l'on trouve dans les forêts submontagnardes primaires et secondaires, à une altitude comprise entre 100 et 600 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier spécimen a été collecté en 1968 au Gabon dans les monts de Cristal, près de la rivière Balakabo. Au sud du Cameroun, il a été décrit dans les années 2000, près de Bidjouka dans le massif de Ngovayang, également à Bifa. En 2004 sa présence a été signalée près de Kinshasa (RDC), mais en l'absence de précisions, cette localisation n'a pas été validée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen a été collecté en 1968 au Gabon dans les monts de Cristal, près de la rivière Balakabo. Au sud du Cameroun, il a été décrit dans les années 2000, près de Bidjouka dans le massif de Ngovayang, également à Bifa. En 2004 sa présence a été signalée près de Kinshasa (RDC), mais en l'absence de précisions, cette localisation n'a pas été validée.
 </t>
         </is>
       </c>
